--- a/laya/csv/Hero.xlsx
+++ b/laya/csv/Hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\Shogun_xx\laya\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\12Project_GeneralII\Trunk\Client\Shogun_laya2.0v\laya\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20873FE7-3113-47B4-921B-FBAD3BFD655B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBD26F0-FF4C-4EF6-938C-E8C0B73AC2CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,202 +508,222 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>步兵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>步兵队长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵队长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵队长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>wj01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>wj02</t>
+  </si>
+  <si>
+    <t>wj03</t>
+  </si>
+  <si>
+    <t>wj04</t>
+  </si>
+  <si>
+    <t>wj05</t>
+  </si>
+  <si>
+    <t>wj06</t>
+  </si>
+  <si>
+    <t>wj07</t>
+  </si>
+  <si>
+    <t>wj08</t>
+  </si>
+  <si>
+    <t>wj09</t>
+  </si>
+  <si>
+    <t>wj10</t>
+  </si>
+  <si>
+    <t>wj11</t>
+  </si>
+  <si>
+    <t>wj12</t>
+  </si>
+  <si>
+    <t>wj13</t>
+  </si>
+  <si>
+    <t>wj14</t>
+  </si>
+  <si>
+    <t>wj15</t>
+  </si>
+  <si>
+    <t>wj16</t>
+  </si>
+  <si>
+    <t>wj17</t>
+  </si>
+  <si>
+    <t>wj18</t>
+  </si>
+  <si>
+    <t>wj19</t>
+  </si>
+  <si>
+    <t>wj20</t>
+  </si>
+  <si>
+    <t>wj21</t>
+  </si>
+  <si>
+    <t>wj22</t>
+  </si>
+  <si>
+    <t>wj23</t>
+  </si>
+  <si>
+    <t>wj24</t>
+  </si>
+  <si>
+    <t>wj25</t>
+  </si>
+  <si>
+    <t>wj26</t>
+  </si>
+  <si>
+    <t>wj27</t>
+  </si>
+  <si>
+    <t>wj28</t>
+  </si>
+  <si>
+    <t>wj29</t>
+  </si>
+  <si>
+    <t>wj30</t>
+  </si>
+  <si>
+    <t>伍长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎贲校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡骑校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中垒校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射声校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>步兵校尉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵校尉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵校尉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙尚香</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>甘宁</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>甄姬</t>
-  </si>
-  <si>
-    <t>孙策</t>
-  </si>
-  <si>
-    <t>马超</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>大乔</t>
-  </si>
-  <si>
-    <t>小乔</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>张辽</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>太史慈</t>
-  </si>
-  <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
-    <t>赵云</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>司马懿</t>
-  </si>
-  <si>
-    <t>周瑜</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>神秘人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>wj01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>wj02</t>
-  </si>
-  <si>
-    <t>wj03</t>
-  </si>
-  <si>
-    <t>wj04</t>
-  </si>
-  <si>
-    <t>wj05</t>
-  </si>
-  <si>
-    <t>wj06</t>
-  </si>
-  <si>
-    <t>wj07</t>
-  </si>
-  <si>
-    <t>wj08</t>
-  </si>
-  <si>
-    <t>wj09</t>
-  </si>
-  <si>
-    <t>wj10</t>
-  </si>
-  <si>
-    <t>wj11</t>
-  </si>
-  <si>
-    <t>wj12</t>
-  </si>
-  <si>
-    <t>wj13</t>
-  </si>
-  <si>
-    <t>wj14</t>
-  </si>
-  <si>
-    <t>wj15</t>
-  </si>
-  <si>
-    <t>wj16</t>
-  </si>
-  <si>
-    <t>wj17</t>
-  </si>
-  <si>
-    <t>wj18</t>
-  </si>
-  <si>
-    <t>wj19</t>
-  </si>
-  <si>
-    <t>wj20</t>
-  </si>
-  <si>
-    <t>wj21</t>
-  </si>
-  <si>
-    <t>wj22</t>
-  </si>
-  <si>
-    <t>wj23</t>
-  </si>
-  <si>
-    <t>wj24</t>
-  </si>
-  <si>
-    <t>wj25</t>
-  </si>
-  <si>
-    <t>wj26</t>
-  </si>
-  <si>
-    <t>wj27</t>
-  </si>
-  <si>
-    <t>wj28</t>
-  </si>
-  <si>
-    <t>wj29</t>
-  </si>
-  <si>
-    <t>wj30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越骑校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯骑校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长水校尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平北将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平南将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平西将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平东将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安北将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安南将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安西将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇北将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇南将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇西将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇东将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征北将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征南将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征西将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征东将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车骑将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骠骑将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,20 +796,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -885,7 +904,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,6 +911,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1284,8 +1305,8 @@
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>111</v>
+      <c r="C4" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -1294,7 +1315,7 @@
         <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
@@ -1308,8 +1329,8 @@
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>112</v>
+      <c r="C5" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
@@ -1318,7 +1339,7 @@
         <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
@@ -1332,8 +1353,8 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>113</v>
+      <c r="C6" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>50</v>
@@ -1342,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
@@ -1356,8 +1377,8 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>114</v>
+      <c r="C7" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -1366,7 +1387,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
@@ -1380,8 +1401,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>115</v>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>52</v>
@@ -1390,7 +1411,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
@@ -1404,8 +1425,8 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>116</v>
+      <c r="C9" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>53</v>
@@ -1414,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
@@ -1428,8 +1449,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>117</v>
+      <c r="C10" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>54</v>
@@ -1438,7 +1459,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
@@ -1452,8 +1473,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>118</v>
+      <c r="C11" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -1462,7 +1483,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -1476,8 +1497,8 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>119</v>
+      <c r="C12" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
@@ -1486,7 +1507,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -1500,17 +1521,17 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>120</v>
+      <c r="C13" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
@@ -1524,17 +1545,17 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>121</v>
+      <c r="C14" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
@@ -1548,17 +1569,17 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>122</v>
+      <c r="C15" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
@@ -1572,17 +1593,17 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>123</v>
+      <c r="C16" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
@@ -1596,17 +1617,17 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>124</v>
+      <c r="C17" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
@@ -1620,17 +1641,17 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>125</v>
+      <c r="C18" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
@@ -1644,17 +1665,17 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>126</v>
+      <c r="C19" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
@@ -1668,17 +1689,17 @@
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>127</v>
+      <c r="C20" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
@@ -1692,17 +1713,17 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>128</v>
+      <c r="C21" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
@@ -1716,17 +1737,17 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>129</v>
+      <c r="C22" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
@@ -1740,17 +1761,17 @@
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>130</v>
+      <c r="C23" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
@@ -1764,17 +1785,17 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>131</v>
+      <c r="C24" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
@@ -1788,17 +1809,17 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>132</v>
+      <c r="C25" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
@@ -1812,17 +1833,17 @@
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>133</v>
+      <c r="C26" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
@@ -1836,17 +1857,17 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>134</v>
+      <c r="C27" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
@@ -1860,17 +1881,17 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>135</v>
+      <c r="C28" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
@@ -1884,17 +1905,17 @@
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>136</v>
+      <c r="C29" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
@@ -1908,17 +1929,17 @@
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>137</v>
+      <c r="C30" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
@@ -1932,17 +1953,17 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>138</v>
+      <c r="C31" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
@@ -1956,17 +1977,17 @@
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>139</v>
+      <c r="C32" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
@@ -1980,8 +2001,8 @@
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>140</v>
+      <c r="C33" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>77</v>
@@ -1990,7 +2011,7 @@
         <v>110</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
